--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -11,6 +11,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -245,9 +246,6 @@
           <cell r="A1" t="str">
             <v>id|在group使用的鱼ID</v>
           </cell>
-          <cell r="C1" t="str">
-            <v>act_id|活动ID</v>
-          </cell>
         </row>
         <row r="2">
           <cell r="A2">
@@ -256,7 +254,6 @@
           <cell r="B2">
             <v>1</v>
           </cell>
-          <cell r="C2"/>
         </row>
         <row r="3">
           <cell r="A3">
@@ -265,7 +262,6 @@
           <cell r="B3">
             <v>2</v>
           </cell>
-          <cell r="C3"/>
         </row>
         <row r="4">
           <cell r="A4">
@@ -274,7 +270,6 @@
           <cell r="B4">
             <v>3</v>
           </cell>
-          <cell r="C4"/>
         </row>
         <row r="5">
           <cell r="A5">
@@ -283,7 +278,6 @@
           <cell r="B5">
             <v>4</v>
           </cell>
-          <cell r="C5"/>
         </row>
         <row r="6">
           <cell r="A6">
@@ -292,7 +286,6 @@
           <cell r="B6">
             <v>5</v>
           </cell>
-          <cell r="C6"/>
         </row>
         <row r="7">
           <cell r="A7">
@@ -301,7 +294,6 @@
           <cell r="B7">
             <v>6</v>
           </cell>
-          <cell r="C7"/>
         </row>
         <row r="8">
           <cell r="A8">
@@ -310,7 +302,6 @@
           <cell r="B8">
             <v>7</v>
           </cell>
-          <cell r="C8"/>
         </row>
         <row r="9">
           <cell r="A9">
@@ -319,7 +310,6 @@
           <cell r="B9">
             <v>8</v>
           </cell>
-          <cell r="C9"/>
         </row>
         <row r="10">
           <cell r="A10">
@@ -328,7 +318,6 @@
           <cell r="B10">
             <v>9</v>
           </cell>
-          <cell r="C10"/>
         </row>
         <row r="11">
           <cell r="A11">
@@ -337,7 +326,6 @@
           <cell r="B11">
             <v>10</v>
           </cell>
-          <cell r="C11"/>
         </row>
         <row r="12">
           <cell r="A12">
@@ -346,7 +334,6 @@
           <cell r="B12">
             <v>11</v>
           </cell>
-          <cell r="C12"/>
         </row>
         <row r="13">
           <cell r="A13">
@@ -355,7 +342,6 @@
           <cell r="B13">
             <v>12</v>
           </cell>
-          <cell r="C13"/>
         </row>
         <row r="14">
           <cell r="A14">
@@ -364,7 +350,6 @@
           <cell r="B14">
             <v>13</v>
           </cell>
-          <cell r="C14"/>
         </row>
         <row r="15">
           <cell r="A15">
@@ -373,7 +358,6 @@
           <cell r="B15">
             <v>14</v>
           </cell>
-          <cell r="C15"/>
         </row>
         <row r="16">
           <cell r="A16">
@@ -382,7 +366,6 @@
           <cell r="B16">
             <v>15</v>
           </cell>
-          <cell r="C16"/>
         </row>
         <row r="17">
           <cell r="A17">
@@ -391,7 +374,6 @@
           <cell r="B17">
             <v>16</v>
           </cell>
-          <cell r="C17"/>
         </row>
         <row r="18">
           <cell r="A18">
@@ -400,7 +382,6 @@
           <cell r="B18">
             <v>17</v>
           </cell>
-          <cell r="C18"/>
         </row>
         <row r="19">
           <cell r="A19">
@@ -409,7 +390,6 @@
           <cell r="B19">
             <v>18</v>
           </cell>
-          <cell r="C19"/>
         </row>
         <row r="20">
           <cell r="A20">
@@ -418,9 +398,6 @@
           <cell r="B20">
             <v>19</v>
           </cell>
-          <cell r="C20">
-            <v>6</v>
-          </cell>
         </row>
         <row r="21">
           <cell r="A21">
@@ -429,7 +406,6 @@
           <cell r="B21">
             <v>20</v>
           </cell>
-          <cell r="C21"/>
         </row>
         <row r="22">
           <cell r="A22">
@@ -438,9 +414,6 @@
           <cell r="B22">
             <v>21</v>
           </cell>
-          <cell r="C22">
-            <v>8</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="A23">
@@ -449,7 +422,6 @@
           <cell r="B23">
             <v>22</v>
           </cell>
-          <cell r="C23"/>
         </row>
         <row r="24">
           <cell r="A24">
@@ -458,7 +430,6 @@
           <cell r="B24">
             <v>23</v>
           </cell>
-          <cell r="C24"/>
         </row>
         <row r="25">
           <cell r="A25">
@@ -467,7 +438,6 @@
           <cell r="B25">
             <v>24</v>
           </cell>
-          <cell r="C25"/>
         </row>
         <row r="26">
           <cell r="A26">
@@ -476,7 +446,6 @@
           <cell r="B26">
             <v>25</v>
           </cell>
-          <cell r="C26"/>
         </row>
         <row r="27">
           <cell r="A27">
@@ -485,7 +454,6 @@
           <cell r="B27">
             <v>26</v>
           </cell>
-          <cell r="C27"/>
         </row>
         <row r="28">
           <cell r="A28">
@@ -494,7 +462,6 @@
           <cell r="B28">
             <v>27</v>
           </cell>
-          <cell r="C28"/>
         </row>
         <row r="29">
           <cell r="A29">
@@ -503,9 +470,6 @@
           <cell r="B29">
             <v>28</v>
           </cell>
-          <cell r="C29">
-            <v>10</v>
-          </cell>
         </row>
         <row r="30">
           <cell r="A30">
@@ -514,9 +478,6 @@
           <cell r="B30">
             <v>29</v>
           </cell>
-          <cell r="C30">
-            <v>19</v>
-          </cell>
         </row>
         <row r="31">
           <cell r="A31">
@@ -525,9 +486,6 @@
           <cell r="B31">
             <v>30</v>
           </cell>
-          <cell r="C31">
-            <v>31</v>
-          </cell>
         </row>
         <row r="32">
           <cell r="A32">
@@ -536,9 +494,6 @@
           <cell r="B32">
             <v>31</v>
           </cell>
-          <cell r="C32">
-            <v>29</v>
-          </cell>
         </row>
         <row r="33">
           <cell r="A33">
@@ -547,9 +502,6 @@
           <cell r="B33">
             <v>32</v>
           </cell>
-          <cell r="C33">
-            <v>32</v>
-          </cell>
         </row>
         <row r="34">
           <cell r="A34">
@@ -558,9 +510,6 @@
           <cell r="B34">
             <v>33</v>
           </cell>
-          <cell r="C34">
-            <v>33</v>
-          </cell>
         </row>
         <row r="35">
           <cell r="A35">
@@ -569,7 +518,6 @@
           <cell r="B35">
             <v>34</v>
           </cell>
-          <cell r="C35"/>
         </row>
         <row r="36">
           <cell r="A36">
@@ -578,9 +526,6 @@
           <cell r="B36">
             <v>35</v>
           </cell>
-          <cell r="C36">
-            <v>30</v>
-          </cell>
         </row>
         <row r="37">
           <cell r="A37">
@@ -589,7 +534,6 @@
           <cell r="B37">
             <v>36</v>
           </cell>
-          <cell r="C37"/>
         </row>
         <row r="38">
           <cell r="A38">
@@ -598,7 +542,6 @@
           <cell r="B38">
             <v>37</v>
           </cell>
-          <cell r="C38"/>
         </row>
         <row r="39">
           <cell r="A39">
@@ -607,7 +550,6 @@
           <cell r="B39">
             <v>38</v>
           </cell>
-          <cell r="C39"/>
         </row>
         <row r="40">
           <cell r="A40">
@@ -616,7 +558,6 @@
           <cell r="B40">
             <v>39</v>
           </cell>
-          <cell r="C40"/>
         </row>
         <row r="41">
           <cell r="A41">
@@ -625,7 +566,6 @@
           <cell r="B41">
             <v>40</v>
           </cell>
-          <cell r="C41"/>
         </row>
         <row r="42">
           <cell r="A42">
@@ -634,7 +574,6 @@
           <cell r="B42">
             <v>41</v>
           </cell>
-          <cell r="C42"/>
         </row>
         <row r="43">
           <cell r="A43">
@@ -643,7 +582,6 @@
           <cell r="B43">
             <v>42</v>
           </cell>
-          <cell r="C43"/>
         </row>
         <row r="44">
           <cell r="A44">
@@ -652,7 +590,6 @@
           <cell r="B44">
             <v>43</v>
           </cell>
-          <cell r="C44"/>
         </row>
         <row r="45">
           <cell r="A45">
@@ -661,7 +598,6 @@
           <cell r="B45">
             <v>44</v>
           </cell>
-          <cell r="C45"/>
         </row>
         <row r="46">
           <cell r="A46">
@@ -670,7 +606,6 @@
           <cell r="B46">
             <v>45</v>
           </cell>
-          <cell r="C46"/>
         </row>
         <row r="47">
           <cell r="A47">
@@ -679,7 +614,6 @@
           <cell r="B47">
             <v>46</v>
           </cell>
-          <cell r="C47"/>
         </row>
         <row r="48">
           <cell r="A48">
@@ -688,9 +622,6 @@
           <cell r="B48">
             <v>47</v>
           </cell>
-          <cell r="C48">
-            <v>34</v>
-          </cell>
         </row>
         <row r="49">
           <cell r="A49">
@@ -699,9 +630,6 @@
           <cell r="B49">
             <v>48</v>
           </cell>
-          <cell r="C49">
-            <v>17</v>
-          </cell>
         </row>
         <row r="50">
           <cell r="A50">
@@ -710,7 +638,6 @@
           <cell r="B50">
             <v>49</v>
           </cell>
-          <cell r="C50"/>
         </row>
         <row r="51">
           <cell r="A51">
@@ -719,7 +646,6 @@
           <cell r="B51">
             <v>50</v>
           </cell>
-          <cell r="C51"/>
         </row>
       </sheetData>
       <sheetData sheetId="7">
@@ -727,6 +653,245 @@
           <cell r="A1" t="str">
             <v>id|编号</v>
           </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="profit"/>
+      <sheetName val="random_wave"/>
+      <sheetName val="wave"/>
+      <sheetName val="image_type_cfg"/>
+      <sheetName val="image_cfg"/>
+      <sheetName val="group"/>
+      <sheetName val="use_fish"/>
+      <sheetName val="activity"/>
+      <sheetName val="box_fish_activity"/>
+      <sheetName val="base_fish"/>
+      <sheetName val="path"/>
+      <sheetName val="laser"/>
+      <sheetName val="gun"/>
+      <sheetName val="skill"/>
+      <sheetName val="dead_mode"/>
+      <sheetName val="box_fish_award"/>
+      <sheetName val="match_award"/>
+      <sheetName val="ue_event_map"/>
+      <sheetName val="summon_fish"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>act_id|活动ID</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="C2"/>
+        </row>
+        <row r="3">
+          <cell r="C3"/>
+        </row>
+        <row r="4">
+          <cell r="C4"/>
+        </row>
+        <row r="5">
+          <cell r="C5"/>
+        </row>
+        <row r="6">
+          <cell r="C6"/>
+        </row>
+        <row r="7">
+          <cell r="C7"/>
+        </row>
+        <row r="8">
+          <cell r="C8"/>
+        </row>
+        <row r="9">
+          <cell r="C9"/>
+        </row>
+        <row r="10">
+          <cell r="C10"/>
+        </row>
+        <row r="11">
+          <cell r="C11"/>
+        </row>
+        <row r="12">
+          <cell r="C12"/>
+        </row>
+        <row r="13">
+          <cell r="C13"/>
+        </row>
+        <row r="14">
+          <cell r="C14"/>
+        </row>
+        <row r="15">
+          <cell r="C15"/>
+        </row>
+        <row r="16">
+          <cell r="C16"/>
+        </row>
+        <row r="17">
+          <cell r="C17"/>
+        </row>
+        <row r="18">
+          <cell r="C18"/>
+        </row>
+        <row r="19">
+          <cell r="C19"/>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21"/>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23"/>
+        </row>
+        <row r="24">
+          <cell r="C24"/>
+        </row>
+        <row r="25">
+          <cell r="C25"/>
+        </row>
+        <row r="26">
+          <cell r="C26"/>
+        </row>
+        <row r="27">
+          <cell r="C27"/>
+        </row>
+        <row r="28">
+          <cell r="C28"/>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38"/>
+        </row>
+        <row r="39">
+          <cell r="C39"/>
+        </row>
+        <row r="40">
+          <cell r="C40"/>
+        </row>
+        <row r="41">
+          <cell r="C41"/>
+        </row>
+        <row r="42">
+          <cell r="C42"/>
+        </row>
+        <row r="43">
+          <cell r="C43"/>
+        </row>
+        <row r="44">
+          <cell r="C44"/>
+        </row>
+        <row r="45">
+          <cell r="C45"/>
+        </row>
+        <row r="46">
+          <cell r="C46"/>
+        </row>
+        <row r="47">
+          <cell r="C47"/>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id|编号</v>
+          </cell>
           <cell r="B1" t="str">
             <v>acti_type|活动类型</v>
           </cell>
@@ -1105,6 +1270,61 @@
             <v>30</v>
           </cell>
           <cell r="D35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>35</v>
+          </cell>
+          <cell r="B36">
+            <v>31</v>
+          </cell>
+          <cell r="D36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>36</v>
+          </cell>
+          <cell r="B37">
+            <v>32</v>
+          </cell>
+          <cell r="D37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>37</v>
+          </cell>
+          <cell r="B38">
+            <v>33</v>
+          </cell>
+          <cell r="D38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>38</v>
+          </cell>
+          <cell r="B39">
+            <v>38</v>
+          </cell>
+          <cell r="D39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>39</v>
+          </cell>
+          <cell r="B40">
+            <v>39</v>
+          </cell>
+          <cell r="D40">
             <v>0</v>
           </cell>
         </row>
@@ -1390,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1422,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C2),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C2),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1436,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C3),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C3),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1450,7 +1670,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C4),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C4),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1464,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C5),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C5),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1478,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C6),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C6),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1492,7 +1712,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C7),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C7),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1506,7 +1726,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C8),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C8),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1520,7 +1740,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C9),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C9),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1534,7 +1754,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C10),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C10),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1548,7 +1768,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C11),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C11),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1562,7 +1782,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C12),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C12),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1576,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C13),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C13),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1590,7 +1810,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C14),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C14),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1604,7 +1824,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C15),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C15),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1618,7 +1838,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C16),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C16),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1632,7 +1852,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C17),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C17),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1646,7 +1866,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C18),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C18),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1660,7 +1880,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C19),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C19),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1674,7 +1894,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C20),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C20),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1688,7 +1908,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C21),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C21),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1702,7 +1922,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C22),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C22),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1716,7 +1936,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C23),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C23),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1730,7 +1950,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C24),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C24),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1744,7 +1964,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C25),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C25),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1758,7 +1978,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C26),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C26),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1772,7 +1992,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C27),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C27),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1786,7 +2006,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C28),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C28),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1800,7 +2020,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C29),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C29),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1814,7 +2034,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C30),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C30),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1828,7 +2048,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1">
-        <f>IF(ISBLANK([1]use_fish!$C31),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C31),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v>25</v>
       </c>
     </row>
@@ -1842,7 +2062,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C32),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C32),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1856,7 +2076,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C33),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C33),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1870,7 +2090,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C34),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C34),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1884,7 +2104,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C35),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C35),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1898,7 +2118,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C36),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C36),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1912,7 +2132,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C37),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C37),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1926,7 +2146,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C38),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C38),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1940,7 +2160,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C39),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C39),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1954,7 +2174,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C40),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C40),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1968,7 +2188,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C41),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C41),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1982,7 +2202,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C42),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C42),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -1996,7 +2216,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C43),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C43),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -2010,7 +2230,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C44),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C44),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -2024,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C45),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C45),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -2038,7 +2258,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C46),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C46),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -2052,7 +2272,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C47),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C47),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -2066,7 +2286,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C48),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C48),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -2080,7 +2300,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C49),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C49),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -2094,7 +2314,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C50),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C50),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
@@ -2108,7 +2328,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C51),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <f>IF(ISBLANK([2]use_fish!$C51),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -647,6 +647,230 @@
             <v>50</v>
           </cell>
         </row>
+        <row r="52">
+          <cell r="A52">
+            <v>51</v>
+          </cell>
+          <cell r="B52">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>52</v>
+          </cell>
+          <cell r="B53">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>53</v>
+          </cell>
+          <cell r="B54">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>54</v>
+          </cell>
+          <cell r="B55">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>55</v>
+          </cell>
+          <cell r="B56">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>56</v>
+          </cell>
+          <cell r="B57">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>57</v>
+          </cell>
+          <cell r="B58">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>58</v>
+          </cell>
+          <cell r="B59">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>59</v>
+          </cell>
+          <cell r="B60">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>60</v>
+          </cell>
+          <cell r="B61">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>61</v>
+          </cell>
+          <cell r="B62">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>62</v>
+          </cell>
+          <cell r="B63">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>63</v>
+          </cell>
+          <cell r="B64">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>64</v>
+          </cell>
+          <cell r="B65">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>65</v>
+          </cell>
+          <cell r="B66">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>66</v>
+          </cell>
+          <cell r="B67">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>67</v>
+          </cell>
+          <cell r="B68">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>68</v>
+          </cell>
+          <cell r="B69">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>69</v>
+          </cell>
+          <cell r="B70">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>70</v>
+          </cell>
+          <cell r="B71">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>71</v>
+          </cell>
+          <cell r="B72">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>72</v>
+          </cell>
+          <cell r="B73">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>73</v>
+          </cell>
+          <cell r="B74">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>74</v>
+          </cell>
+          <cell r="B75">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>75</v>
+          </cell>
+          <cell r="B76">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>76</v>
+          </cell>
+          <cell r="B77">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>77</v>
+          </cell>
+          <cell r="B78">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>78</v>
+          </cell>
+          <cell r="B79">
+            <v>27</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="1">
@@ -842,22 +1066,32 @@
           <cell r="C38"/>
         </row>
         <row r="39">
-          <cell r="C39"/>
+          <cell r="C39">
+            <v>26</v>
+          </cell>
         </row>
         <row r="40">
-          <cell r="C40"/>
+          <cell r="C40">
+            <v>25</v>
+          </cell>
         </row>
         <row r="41">
-          <cell r="C41"/>
+          <cell r="C41">
+            <v>41</v>
+          </cell>
         </row>
         <row r="42">
-          <cell r="C42"/>
+          <cell r="C42">
+            <v>27</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="C43"/>
         </row>
         <row r="44">
-          <cell r="C44"/>
+          <cell r="C44">
+            <v>40</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="C45"/>
@@ -885,6 +1119,146 @@
         </row>
         <row r="51">
           <cell r="C51"/>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79">
+            <v>43</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
@@ -1325,6 +1699,50 @@
             <v>39</v>
           </cell>
           <cell r="D40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>40</v>
+          </cell>
+          <cell r="B41">
+            <v>21</v>
+          </cell>
+          <cell r="D41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>41</v>
+          </cell>
+          <cell r="B42">
+            <v>21</v>
+          </cell>
+          <cell r="D42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>42</v>
+          </cell>
+          <cell r="B43">
+            <v>4</v>
+          </cell>
+          <cell r="D43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43</v>
+          </cell>
+          <cell r="B44">
+            <v>5</v>
+          </cell>
+          <cell r="D44">
             <v>0</v>
           </cell>
         </row>
@@ -1608,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="R62" sqref="R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1641,9 +2059,9 @@
         <f>[1]use_fish!$B2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C2),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,9 +2073,9 @@
         <f>[1]use_fish!$B3</f>
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C3),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1669,9 +2087,9 @@
         <f>[1]use_fish!$B4</f>
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C4),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1683,9 +2101,9 @@
         <f>[1]use_fish!$B5</f>
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C5),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1697,9 +2115,9 @@
         <f>[1]use_fish!$B6</f>
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C6),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1711,9 +2129,9 @@
         <f>[1]use_fish!$B7</f>
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C7),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1725,9 +2143,9 @@
         <f>[1]use_fish!$B8</f>
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C8),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1739,9 +2157,9 @@
         <f>[1]use_fish!$B9</f>
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C9),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1753,9 +2171,9 @@
         <f>[1]use_fish!$B10</f>
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C10),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1767,9 +2185,9 @@
         <f>[1]use_fish!$B11</f>
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C11),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1781,9 +2199,9 @@
         <f>[1]use_fish!$B12</f>
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C12),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1795,9 +2213,9 @@
         <f>[1]use_fish!$B13</f>
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C13),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1809,9 +2227,9 @@
         <f>[1]use_fish!$B14</f>
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C14),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1823,9 +2241,9 @@
         <f>[1]use_fish!$B15</f>
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C15),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1837,9 +2255,9 @@
         <f>[1]use_fish!$B16</f>
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C16" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C16),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1851,9 +2269,9 @@
         <f>[1]use_fish!$B17</f>
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C17" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C17),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1865,9 +2283,9 @@
         <f>[1]use_fish!$B18</f>
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C18" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C18),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1879,9 +2297,9 @@
         <f>[1]use_fish!$B19</f>
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C19" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C19),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1907,9 +2325,9 @@
         <f>[1]use_fish!$B21</f>
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C21" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C21),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1935,9 +2353,9 @@
         <f>[1]use_fish!$B23</f>
         <v>22</v>
       </c>
-      <c r="C23" s="1" t="str">
+      <c r="C23" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C23),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1949,9 +2367,9 @@
         <f>[1]use_fish!$B24</f>
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="str">
+      <c r="C24" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C24),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1963,9 +2381,9 @@
         <f>[1]use_fish!$B25</f>
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="str">
+      <c r="C25" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C25),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1977,9 +2395,9 @@
         <f>[1]use_fish!$B26</f>
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="str">
+      <c r="C26" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C26),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1991,9 +2409,9 @@
         <f>[1]use_fish!$B27</f>
         <v>26</v>
       </c>
-      <c r="C27" s="1" t="str">
+      <c r="C27" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C27),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2005,9 +2423,9 @@
         <f>[1]use_fish!$B28</f>
         <v>27</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C28" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C28),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2145,9 +2563,9 @@
         <f>[1]use_fish!$B38</f>
         <v>37</v>
       </c>
-      <c r="C38" s="1" t="str">
+      <c r="C38" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C38),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2159,9 +2577,9 @@
         <f>[1]use_fish!$B39</f>
         <v>38</v>
       </c>
-      <c r="C39" s="1" t="str">
+      <c r="C39" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C39),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2173,9 +2591,9 @@
         <f>[1]use_fish!$B40</f>
         <v>39</v>
       </c>
-      <c r="C40" s="1" t="str">
+      <c r="C40" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C40),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2187,9 +2605,9 @@
         <f>[1]use_fish!$B41</f>
         <v>40</v>
       </c>
-      <c r="C41" s="1" t="str">
+      <c r="C41" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C41),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2201,9 +2619,9 @@
         <f>[1]use_fish!$B42</f>
         <v>41</v>
       </c>
-      <c r="C42" s="1" t="str">
+      <c r="C42" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C42),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2215,9 +2633,9 @@
         <f>[1]use_fish!$B43</f>
         <v>42</v>
       </c>
-      <c r="C43" s="1" t="str">
+      <c r="C43" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C43),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2229,9 +2647,9 @@
         <f>[1]use_fish!$B44</f>
         <v>43</v>
       </c>
-      <c r="C44" s="1" t="str">
+      <c r="C44" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C44),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2243,9 +2661,9 @@
         <f>[1]use_fish!$B45</f>
         <v>44</v>
       </c>
-      <c r="C45" s="1" t="str">
+      <c r="C45" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C45),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2257,9 +2675,9 @@
         <f>[1]use_fish!$B46</f>
         <v>45</v>
       </c>
-      <c r="C46" s="1" t="str">
+      <c r="C46" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C46),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2271,9 +2689,9 @@
         <f>[1]use_fish!$B47</f>
         <v>46</v>
       </c>
-      <c r="C47" s="1" t="str">
+      <c r="C47" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C47),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2327,49 +2745,402 @@
         <f>[1]use_fish!$B51</f>
         <v>50</v>
       </c>
-      <c r="C51" s="1" t="str">
+      <c r="C51" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C51),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
+      <c r="A52" s="3">
+        <f>[1]use_fish!$A52</f>
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <f>[1]use_fish!$B52</f>
+        <v>11</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C52),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
+      <c r="A53" s="3">
+        <f>[1]use_fish!$A53</f>
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <f>[1]use_fish!$B53</f>
+        <v>12</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C53),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
+      <c r="A54" s="3">
+        <f>[1]use_fish!$A54</f>
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <f>[1]use_fish!$B54</f>
+        <v>13</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C54),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
+      <c r="A55" s="3">
+        <f>[1]use_fish!$A55</f>
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <f>[1]use_fish!$B55</f>
+        <v>14</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C55),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
+      <c r="A56" s="3">
+        <f>[1]use_fish!$A56</f>
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <f>[1]use_fish!$B56</f>
+        <v>15</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C56),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
+      <c r="A57" s="3">
+        <f>[1]use_fish!$A57</f>
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <f>[1]use_fish!$B57</f>
+        <v>16</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C57),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
+      <c r="A58" s="3">
+        <f>[1]use_fish!$A58</f>
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <f>[1]use_fish!$B58</f>
+        <v>17</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C58),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
+      <c r="A59" s="3">
+        <f>[1]use_fish!$A59</f>
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <f>[1]use_fish!$B59</f>
+        <v>18</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C59),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
+      <c r="A60" s="3">
+        <f>[1]use_fish!$A60</f>
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <f>[1]use_fish!$B60</f>
+        <v>20</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C60),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
+      <c r="A61" s="3">
+        <f>[1]use_fish!$A61</f>
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <f>[1]use_fish!$B61</f>
+        <v>22</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C61),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
+      <c r="A62" s="3">
+        <f>[1]use_fish!$A62</f>
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <f>[1]use_fish!$B62</f>
+        <v>23</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C62),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
+      <c r="A63" s="3">
+        <f>[1]use_fish!$A63</f>
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <f>[1]use_fish!$B63</f>
+        <v>25</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C63),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
+      <c r="A64" s="3">
+        <f>[1]use_fish!$A64</f>
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <f>[1]use_fish!$B64</f>
+        <v>26</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C64),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <f>[1]use_fish!$A65</f>
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <f>[1]use_fish!$B65</f>
+        <v>27</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C65),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <f>[1]use_fish!$A66</f>
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <f>[1]use_fish!$B66</f>
+        <v>11</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C66),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <f>[1]use_fish!$A67</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <f>[1]use_fish!$B67</f>
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C67),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <f>[1]use_fish!$A68</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <f>[1]use_fish!$B68</f>
+        <v>13</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C68),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <f>[1]use_fish!$A69</f>
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <f>[1]use_fish!$B69</f>
+        <v>14</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C69),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <f>[1]use_fish!$A70</f>
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <f>[1]use_fish!$B70</f>
+        <v>15</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C70),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <f>[1]use_fish!$A71</f>
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <f>[1]use_fish!$B71</f>
+        <v>16</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C71),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <f>[1]use_fish!$A72</f>
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <f>[1]use_fish!$B72</f>
+        <v>17</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C72),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <f>[1]use_fish!$A73</f>
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <f>[1]use_fish!$B73</f>
+        <v>18</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C73),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <f>[1]use_fish!$A74</f>
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <f>[1]use_fish!$B74</f>
+        <v>20</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C74),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <f>[1]use_fish!$A75</f>
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <f>[1]use_fish!$B75</f>
+        <v>22</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C75),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <f>[1]use_fish!$A76</f>
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <f>[1]use_fish!$B76</f>
+        <v>23</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C76),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <f>[1]use_fish!$A77</f>
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <f>[1]use_fish!$B77</f>
+        <v>25</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C77),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <f>[1]use_fish!$A78</f>
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <f>[1]use_fish!$B78</f>
+        <v>26</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C78),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <f>[1]use_fish!$A79</f>
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <f>[1]use_fish!$B79</f>
+        <v>27</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C79),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2131,7 +2131,7 @@
   <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="T73" sqref="T73"/>
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3254,7 +3254,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <f>[1]use_fish!$A81</f>
         <v>80</v>
@@ -3263,8 +3263,11 @@
         <f>[1]use_fish!$B81</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <f>[1]use_fish!$A82</f>
         <v>81</v>
@@ -3273,8 +3276,11 @@
         <f>[1]use_fish!$B82</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <f>[1]use_fish!$A83</f>
         <v>82</v>
@@ -3283,8 +3289,11 @@
         <f>[1]use_fish!$B83</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <f>[1]use_fish!$A84</f>
         <v>83</v>
@@ -3292,6 +3301,9 @@
       <c r="B84" s="3">
         <f>[1]use_fish!$B84</f>
         <v>11</v>
+      </c>
+      <c r="C84" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -894,16 +894,10 @@
           <cell r="A83">
             <v>82</v>
           </cell>
-          <cell r="B83">
-            <v>14</v>
-          </cell>
         </row>
         <row r="84">
           <cell r="A84">
             <v>83</v>
-          </cell>
-          <cell r="B84">
-            <v>11</v>
           </cell>
         </row>
       </sheetData>
@@ -2131,7 +2125,7 @@
   <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3286,8 +3280,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3">
-        <f>[1]use_fish!$B83</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C83" s="1">
         <v>9</v>
@@ -3299,8 +3292,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3">
-        <f>[1]use_fish!$B84</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C84" s="1">
         <v>9</v>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -911,6 +911,22 @@
             <v>84</v>
           </cell>
           <cell r="B85">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>85</v>
+          </cell>
+          <cell r="B86">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>86</v>
+          </cell>
+          <cell r="B87">
             <v>52</v>
           </cell>
         </row>
@@ -2136,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+      <selection activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3324,6 +3340,26 @@
         <v>52</v>
       </c>
     </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <f>[1]use_fish!$A86</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <f>[1]use_fish!$B86</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <f>[1]use_fish!$A87</f>
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <f>[1]use_fish!$B87</f>
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -928,6 +928,38 @@
           </cell>
           <cell r="B87">
             <v>52</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>87</v>
+          </cell>
+          <cell r="B88">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>88</v>
+          </cell>
+          <cell r="B89">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>89</v>
+          </cell>
+          <cell r="B90">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>90</v>
+          </cell>
+          <cell r="B91">
+            <v>13</v>
           </cell>
         </row>
       </sheetData>
@@ -2152,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L93" sqref="L93"/>
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3360,6 +3392,58 @@
         <v>52</v>
       </c>
     </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <f>[1]use_fish!$A88</f>
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <f>[1]use_fish!$B88</f>
+        <v>18</v>
+      </c>
+      <c r="C88" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <f>[1]use_fish!$A89</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <f>[1]use_fish!$B89</f>
+        <v>17</v>
+      </c>
+      <c r="C89" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <f>[1]use_fish!$A90</f>
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <f>[1]use_fish!$B90</f>
+        <v>15</v>
+      </c>
+      <c r="C90" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <f>[1]use_fish!$A91</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <f>[1]use_fish!$B91</f>
+        <v>13</v>
+      </c>
+      <c r="C91" s="1">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>attr_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,6 +69,17 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cond_key|权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_031_xxy_show</t>
+  </si>
+  <si>
+    <t>actp_031_xxy_show</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -998,20 +1009,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1021,8 +1033,11 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1031,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1040,7 +1055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1049,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1058,7 +1073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1067,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1076,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1085,7 +1100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1094,7 +1109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1103,7 +1118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1112,7 +1127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1121,7 +1136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1130,7 +1145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1139,7 +1154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1148,7 +1163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1733,7 +1748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -1745,7 +1760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -1757,7 +1772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -1769,7 +1784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -1781,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -1790,7 +1805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -1799,7 +1814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -1808,7 +1823,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -1820,7 +1835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -1832,7 +1847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -1844,7 +1859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -1856,7 +1871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -1864,8 +1879,11 @@
         <f>[1]use_fish!$B92</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -1873,8 +1891,11 @@
         <f>[1]use_fish!$B93</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -1882,8 +1903,11 @@
         <f>[1]use_fish!$B94</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -1894,8 +1918,11 @@
       <c r="C95" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -1906,8 +1933,11 @@
       <c r="C96" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -1918,8 +1948,11 @@
       <c r="C97" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -1930,8 +1963,11 @@
       <c r="C98" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -1942,8 +1978,11 @@
       <c r="C99" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -1954,8 +1993,11 @@
       <c r="C100" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -1965,6 +2007,9 @@
       </c>
       <c r="C101" s="1">
         <v>9</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -154,13 +154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +196,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -207,16 +207,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,17 +1039,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="11.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="11.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1781,7 +1787,7 @@
         <f>[1]use_fish!$B81</f>
         <v>18</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1793,7 +1799,7 @@
         <f>[1]use_fish!$B82</f>
         <v>17</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1805,7 +1811,7 @@
         <f>[1]use_fish!$B83</f>
         <v>15</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1817,7 +1823,7 @@
         <f>[1]use_fish!$B84</f>
         <v>13</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1856,7 +1862,7 @@
         <f>[1]use_fish!$B88</f>
         <v>53</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1868,7 +1874,7 @@
         <f>[1]use_fish!$B89</f>
         <v>54</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1880,7 +1886,7 @@
         <f>[1]use_fish!$B90</f>
         <v>55</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1892,7 +1898,7 @@
         <f>[1]use_fish!$B91</f>
         <v>56</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1940,7 +1946,7 @@
         <f>[1]use_fish!$B95</f>
         <v>11</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="6">
         <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -1955,7 +1961,7 @@
         <f>[1]use_fish!$B96</f>
         <v>12</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -1970,7 +1976,7 @@
         <f>[1]use_fish!$B97</f>
         <v>13</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <v>9</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -1985,7 +1991,7 @@
         <f>[1]use_fish!$B98</f>
         <v>14</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="6">
         <v>9</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -2000,7 +2006,7 @@
         <f>[1]use_fish!$B99</f>
         <v>15</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="6">
         <v>9</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2015,7 +2021,7 @@
         <f>[1]use_fish!$B100</f>
         <v>16</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="6">
         <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2030,7 +2036,7 @@
         <f>[1]use_fish!$B101</f>
         <v>17</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="6">
         <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2038,113 +2044,206 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+      <c r="A102" s="8">
         <v>101</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="7">
         <v>13</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
+      <c r="A103" s="8">
         <v>102</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="7">
         <v>14</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
+      <c r="A104" s="8">
         <v>103</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="7">
         <v>15</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+      <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="7">
         <v>16</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
+      <c r="A106" s="8">
         <v>105</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="7">
         <v>17</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+      <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="7">
         <v>18</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
+      <c r="A108" s="8">
         <v>107</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="8">
         <v>58</v>
       </c>
-      <c r="C108" s="4"/>
+      <c r="C108" s="9"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+      <c r="A109" s="8">
         <v>108</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="8">
         <v>58</v>
       </c>
-      <c r="C109" s="4"/>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
+      <c r="A110" s="8">
         <v>109</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="8">
         <v>58</v>
       </c>
-      <c r="C110" s="4"/>
+      <c r="C110" s="9"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="5">
         <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="5">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="5">
         <v>59</v>
       </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="B113" s="7">
+        <v>13</v>
+      </c>
+      <c r="C113" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="8">
+        <v>113</v>
+      </c>
+      <c r="B114" s="7">
+        <v>14</v>
+      </c>
+      <c r="C114" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="B115" s="7">
+        <v>15</v>
+      </c>
+      <c r="C115" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="8">
+        <v>115</v>
+      </c>
+      <c r="B116" s="7">
+        <v>16</v>
+      </c>
+      <c r="C116" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
+      <c r="B117" s="7">
+        <v>17</v>
+      </c>
+      <c r="C117" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="8">
+        <v>117</v>
+      </c>
+      <c r="B118" s="7">
+        <v>18</v>
+      </c>
+      <c r="C118" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8">
+        <v>60</v>
+      </c>
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="8">
+        <v>119</v>
+      </c>
+      <c r="B120" s="8">
+        <v>60</v>
+      </c>
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="8">
+        <v>120</v>
+      </c>
+      <c r="B121" s="8">
+        <v>60</v>
+      </c>
+      <c r="C121" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -139,7 +139,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +196,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -204,8 +210,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1021,16 +1033,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="11.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1768,7 +1781,7 @@
         <f>[1]use_fish!$B81</f>
         <v>18</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1780,7 +1793,7 @@
         <f>[1]use_fish!$B82</f>
         <v>17</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1792,7 +1805,7 @@
         <f>[1]use_fish!$B83</f>
         <v>15</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1804,7 +1817,7 @@
         <f>[1]use_fish!$B84</f>
         <v>13</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1843,7 +1856,7 @@
         <f>[1]use_fish!$B88</f>
         <v>53</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1855,7 +1868,7 @@
         <f>[1]use_fish!$B89</f>
         <v>54</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1867,7 +1880,7 @@
         <f>[1]use_fish!$B90</f>
         <v>55</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1879,7 +1892,7 @@
         <f>[1]use_fish!$B91</f>
         <v>56</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1927,7 +1940,7 @@
         <f>[1]use_fish!$B95</f>
         <v>11</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="7">
         <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -1942,7 +1955,7 @@
         <f>[1]use_fish!$B96</f>
         <v>12</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="7">
         <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -1957,7 +1970,7 @@
         <f>[1]use_fish!$B97</f>
         <v>13</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="7">
         <v>9</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -1972,7 +1985,7 @@
         <f>[1]use_fish!$B98</f>
         <v>14</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="7">
         <v>9</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -1987,7 +2000,7 @@
         <f>[1]use_fish!$B99</f>
         <v>15</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="7">
         <v>9</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2002,7 +2015,7 @@
         <f>[1]use_fish!$B100</f>
         <v>16</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="7">
         <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2017,7 +2030,7 @@
         <f>[1]use_fish!$B101</f>
         <v>17</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="7">
         <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2031,7 +2044,7 @@
       <c r="B102" s="4">
         <v>13</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2042,7 +2055,7 @@
       <c r="B103" s="4">
         <v>14</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2053,7 +2066,7 @@
       <c r="B104" s="4">
         <v>15</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2064,7 +2077,7 @@
       <c r="B105" s="4">
         <v>16</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2075,7 +2088,7 @@
       <c r="B106" s="4">
         <v>17</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2086,7 +2099,7 @@
       <c r="B107" s="4">
         <v>18</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2097,7 +2110,7 @@
       <c r="B108" s="4">
         <v>58</v>
       </c>
-      <c r="C108" s="5"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
@@ -2106,7 +2119,7 @@
       <c r="B109" s="4">
         <v>58</v>
       </c>
-      <c r="C109" s="5"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
@@ -2115,7 +2128,23 @@
       <c r="B110" s="4">
         <v>58</v>
       </c>
-      <c r="C110" s="5"/>
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+      <c r="B111" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>111</v>
+      </c>
+      <c r="B112" s="6">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -139,7 +139,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,12 +150,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -196,7 +190,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -207,22 +201,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,6 +745,271 @@
         <row r="101">
           <cell r="B101">
             <v>17</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>61</v>
           </cell>
         </row>
       </sheetData>
@@ -1039,17 +1289,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="11.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="11.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1787,7 +2038,7 @@
         <f>[1]use_fish!$B81</f>
         <v>18</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1799,7 +2050,7 @@
         <f>[1]use_fish!$B82</f>
         <v>17</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1811,7 +2062,7 @@
         <f>[1]use_fish!$B83</f>
         <v>15</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1823,7 +2074,7 @@
         <f>[1]use_fish!$B84</f>
         <v>13</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1862,7 +2113,7 @@
         <f>[1]use_fish!$B88</f>
         <v>53</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1874,7 +2125,7 @@
         <f>[1]use_fish!$B89</f>
         <v>54</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1886,7 +2137,7 @@
         <f>[1]use_fish!$B90</f>
         <v>55</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1898,7 +2149,7 @@
         <f>[1]use_fish!$B91</f>
         <v>56</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1946,7 +2197,7 @@
         <f>[1]use_fish!$B95</f>
         <v>11</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="4">
         <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -1961,7 +2212,7 @@
         <f>[1]use_fish!$B96</f>
         <v>12</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="4">
         <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -1976,7 +2227,7 @@
         <f>[1]use_fish!$B97</f>
         <v>13</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="4">
         <v>9</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -1991,7 +2242,7 @@
         <f>[1]use_fish!$B98</f>
         <v>14</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="4">
         <v>9</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -2006,7 +2257,7 @@
         <f>[1]use_fish!$B99</f>
         <v>15</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="4">
         <v>9</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2021,7 +2272,7 @@
         <f>[1]use_fish!$B100</f>
         <v>16</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="4">
         <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2036,7 +2287,7 @@
         <f>[1]use_fish!$B101</f>
         <v>17</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="4">
         <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2044,206 +2295,566 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="3">
+        <f>[1]use_fish!$B102</f>
         <v>13</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="8">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="3">
+        <f>[1]use_fish!$B103</f>
         <v>14</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="8">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="3">
+        <f>[1]use_fish!$B104</f>
         <v>15</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="8">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="3">
+        <f>[1]use_fish!$B105</f>
         <v>16</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
+      <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="3">
+        <f>[1]use_fish!$B106</f>
         <v>17</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="8">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="3">
+        <f>[1]use_fish!$B107</f>
         <v>18</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B108" s="3">
+        <f>[1]use_fish!$B108</f>
         <v>58</v>
       </c>
-      <c r="C108" s="9"/>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="8">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="8">
+      <c r="B109" s="3">
+        <f>[1]use_fish!$B109</f>
         <v>58</v>
       </c>
-      <c r="C109" s="9"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="8">
+      <c r="B110" s="3">
+        <f>[1]use_fish!$B110</f>
         <v>58</v>
       </c>
-      <c r="C110" s="9"/>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111" s="3">
+        <f>[1]use_fish!$B111</f>
         <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="3">
+        <f>[1]use_fish!$B112</f>
         <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="8">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="3">
+        <f>[1]use_fish!$B113</f>
         <v>13</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="8">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="3">
+        <f>[1]use_fish!$B114</f>
         <v>14</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="8">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="3">
+        <f>[1]use_fish!$B115</f>
         <v>15</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="8">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="3">
+        <f>[1]use_fish!$B116</f>
         <v>16</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="8">
+      <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="3">
+        <f>[1]use_fish!$B117</f>
         <v>17</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="8">
+      <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="3">
+        <f>[1]use_fish!$B118</f>
         <v>18</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="8">
+      <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B119" s="3">
+        <f>[1]use_fish!$B119</f>
         <v>60</v>
       </c>
-      <c r="C119" s="9"/>
+      <c r="C119" s="6"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="8">
+      <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B120" s="3">
+        <f>[1]use_fish!$B120</f>
         <v>60</v>
       </c>
-      <c r="C120" s="9"/>
+      <c r="C120" s="6"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="8">
+      <c r="A121" s="3">
         <v>120</v>
       </c>
-      <c r="B121" s="8">
+      <c r="B121" s="3">
+        <f>[1]use_fish!$B121</f>
         <v>60</v>
       </c>
-      <c r="C121" s="9"/>
+      <c r="C121" s="6"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <f>[1]use_fish!$B122</f>
+        <v>20</v>
+      </c>
+      <c r="C122" s="6"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <f>[1]use_fish!$B123</f>
+        <v>22</v>
+      </c>
+      <c r="C123" s="6"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3">
+        <f>[1]use_fish!$B124</f>
+        <v>23</v>
+      </c>
+      <c r="C124" s="6"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3">
+        <f>[1]use_fish!$B125</f>
+        <v>25</v>
+      </c>
+      <c r="C125" s="6"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3">
+        <f>[1]use_fish!$B126</f>
+        <v>26</v>
+      </c>
+      <c r="C126" s="6"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3">
+        <f>[1]use_fish!$B127</f>
+        <v>27</v>
+      </c>
+      <c r="C127" s="6"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3">
+        <f>[1]use_fish!$B128</f>
+        <v>20</v>
+      </c>
+      <c r="C128" s="6"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3">
+        <f>[1]use_fish!$B129</f>
+        <v>22</v>
+      </c>
+      <c r="C129" s="6"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3">
+        <f>[1]use_fish!$B130</f>
+        <v>23</v>
+      </c>
+      <c r="C130" s="6"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3">
+        <f>[1]use_fish!$B131</f>
+        <v>25</v>
+      </c>
+      <c r="C131" s="6"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3">
+        <f>[1]use_fish!$B132</f>
+        <v>26</v>
+      </c>
+      <c r="C132" s="6"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3">
+        <f>[1]use_fish!$B133</f>
+        <v>27</v>
+      </c>
+      <c r="C133" s="6"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3">
+        <f>[1]use_fish!$B134</f>
+        <v>20</v>
+      </c>
+      <c r="C134" s="6"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3">
+        <f>[1]use_fish!$B135</f>
+        <v>22</v>
+      </c>
+      <c r="C135" s="6"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3">
+        <f>[1]use_fish!$B136</f>
+        <v>23</v>
+      </c>
+      <c r="C136" s="6"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3">
+        <f>[1]use_fish!$B137</f>
+        <v>25</v>
+      </c>
+      <c r="C137" s="6"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3">
+        <f>[1]use_fish!$B138</f>
+        <v>26</v>
+      </c>
+      <c r="C138" s="6"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3">
+        <f>[1]use_fish!$B139</f>
+        <v>27</v>
+      </c>
+      <c r="C139" s="6"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3">
+        <f>[1]use_fish!$B140</f>
+        <v>20</v>
+      </c>
+      <c r="C140" s="6"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3">
+        <f>[1]use_fish!$B141</f>
+        <v>22</v>
+      </c>
+      <c r="C141" s="6"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3">
+        <f>[1]use_fish!$B142</f>
+        <v>23</v>
+      </c>
+      <c r="C142" s="6"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3">
+        <f>[1]use_fish!$B143</f>
+        <v>25</v>
+      </c>
+      <c r="C143" s="6"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3">
+        <f>[1]use_fish!$B144</f>
+        <v>26</v>
+      </c>
+      <c r="C144" s="6"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3">
+        <f>[1]use_fish!$B145</f>
+        <v>27</v>
+      </c>
+      <c r="C145" s="6"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3">
+        <f>[1]use_fish!$B146</f>
+        <v>13</v>
+      </c>
+      <c r="C146" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3">
+        <f>[1]use_fish!$B147</f>
+        <v>14</v>
+      </c>
+      <c r="C147" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3">
+        <f>[1]use_fish!$B148</f>
+        <v>15</v>
+      </c>
+      <c r="C148" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3">
+        <f>[1]use_fish!$B149</f>
+        <v>16</v>
+      </c>
+      <c r="C149" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3">
+        <f>[1]use_fish!$B150</f>
+        <v>17</v>
+      </c>
+      <c r="C150" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3">
+        <f>[1]use_fish!$B151</f>
+        <v>18</v>
+      </c>
+      <c r="C151" s="6"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3">
+        <f>[1]use_fish!$B152</f>
+        <v>61</v>
+      </c>
+      <c r="C152" s="6"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3">
+        <f>[1]use_fish!$B153</f>
+        <v>61</v>
+      </c>
+      <c r="C153" s="6"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3">
+        <f>[1]use_fish!$B154</f>
+        <v>61</v>
+      </c>
+      <c r="C154" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -1010,6 +1010,51 @@
         <row r="154">
           <cell r="B154">
             <v>61</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163">
+            <v>18</v>
           </cell>
         </row>
       </sheetData>
@@ -1289,11 +1334,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
+      <selection pane="bottomLeft" activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2856,6 +2901,105 @@
       </c>
       <c r="C154" s="6"/>
     </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3">
+        <f>[1]use_fish!$B155</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3">
+        <f>[1]use_fish!$B156</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3">
+        <f>[1]use_fish!$B157</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3">
+        <f>[1]use_fish!$B158</f>
+        <v>13</v>
+      </c>
+      <c r="C158" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3">
+        <f>[1]use_fish!$B159</f>
+        <v>14</v>
+      </c>
+      <c r="C159" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3">
+        <f>[1]use_fish!$B160</f>
+        <v>15</v>
+      </c>
+      <c r="C160" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3">
+        <f>[1]use_fish!$B161</f>
+        <v>16</v>
+      </c>
+      <c r="C161" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3">
+        <f>[1]use_fish!$B162</f>
+        <v>17</v>
+      </c>
+      <c r="C162" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>162</v>
+      </c>
+      <c r="B163" s="3">
+        <f>[1]use_fish!$B163</f>
+        <v>18</v>
+      </c>
+      <c r="C163" s="4">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>attr_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,9 +81,6 @@
   <si>
     <t>actp_031_xxy_show</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_no_vivo</t>
   </si>
 </sst>
 </file>
@@ -142,7 +139,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,7 +196,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -211,6 +214,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1341,7 +1350,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
+      <selection pane="bottomLeft" activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2794,7 +2803,7 @@
       </c>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -2804,134 +2813,107 @@
       </c>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="7">
         <f>[1]use_fish!$B146</f>
         <v>13</v>
       </c>
-      <c r="C146" s="6">
-        <v>9</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="3">
+      <c r="C146" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="7">
         <f>[1]use_fish!$B147</f>
         <v>14</v>
       </c>
-      <c r="C147" s="6">
-        <v>9</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="3">
+      <c r="C147" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="7">
         <f>[1]use_fish!$B148</f>
         <v>15</v>
       </c>
-      <c r="C148" s="6">
-        <v>9</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="3">
+      <c r="C148" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="7">
         <f>[1]use_fish!$B149</f>
         <v>16</v>
       </c>
-      <c r="C149" s="6">
-        <v>9</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="3">
+      <c r="C149" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="7">
         <f>[1]use_fish!$B150</f>
         <v>17</v>
       </c>
-      <c r="C150" s="6">
-        <v>9</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="3">
+      <c r="C150" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="7">
         <f>[1]use_fish!$B151</f>
         <v>18</v>
       </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="3">
+      <c r="C151" s="8"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="7">
         <f>[1]use_fish!$B152</f>
         <v>61</v>
       </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="3">
+      <c r="C152" s="8"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="7">
         <f>[1]use_fish!$B153</f>
         <v>61</v>
       </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="3">
+      <c r="C153" s="8"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="7">
         <f>[1]use_fish!$B154</f>
         <v>61</v>
       </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C154" s="8"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -2940,7 +2922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -2949,7 +2931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -2958,7 +2940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -2970,7 +2952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -2982,7 +2964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>159</v>
       </c>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -1006,66 +1006,6 @@
         </row>
         <row r="151">
           <cell r="B151">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
             <v>18</v>
           </cell>
         </row>
@@ -1350,7 +1290,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G155" sqref="G155"/>
+      <selection pane="bottomLeft" activeCell="G142" sqref="G141:G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2881,15 +2821,16 @@
         <f>[1]use_fish!$B151</f>
         <v>18</v>
       </c>
-      <c r="C151" s="8"/>
+      <c r="C151" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>151</v>
       </c>
       <c r="B152" s="7">
-        <f>[1]use_fish!$B152</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C152" s="8"/>
     </row>
@@ -2898,8 +2839,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="7">
-        <f>[1]use_fish!$B153</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C153" s="8"/>
     </row>
@@ -2908,109 +2848,45 @@
         <v>153</v>
       </c>
       <c r="B154" s="7">
-        <f>[1]use_fish!$B154</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C154" s="8"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="3">
-        <v>154</v>
-      </c>
-      <c r="B155" s="3">
-        <f>[1]use_fish!$B155</f>
-        <v>63</v>
-      </c>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="3">
-        <v>155</v>
-      </c>
-      <c r="B156" s="3">
-        <f>[1]use_fish!$B156</f>
-        <v>63</v>
-      </c>
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="3">
-        <v>156</v>
-      </c>
-      <c r="B157" s="3">
-        <f>[1]use_fish!$B157</f>
-        <v>63</v>
-      </c>
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="3">
-        <v>157</v>
-      </c>
-      <c r="B158" s="3">
-        <f>[1]use_fish!$B158</f>
-        <v>13</v>
-      </c>
-      <c r="C158" s="4">
-        <v>9</v>
-      </c>
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="3">
-        <v>158</v>
-      </c>
-      <c r="B159" s="3">
-        <f>[1]use_fish!$B159</f>
-        <v>14</v>
-      </c>
-      <c r="C159" s="4">
-        <v>9</v>
-      </c>
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="3">
-        <v>159</v>
-      </c>
-      <c r="B160" s="3">
-        <f>[1]use_fish!$B160</f>
-        <v>15</v>
-      </c>
-      <c r="C160" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="3">
-        <v>160</v>
-      </c>
-      <c r="B161" s="3">
-        <f>[1]use_fish!$B161</f>
-        <v>16</v>
-      </c>
-      <c r="C161" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="3">
-        <v>161</v>
-      </c>
-      <c r="B162" s="3">
-        <f>[1]use_fish!$B162</f>
-        <v>17</v>
-      </c>
-      <c r="C162" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="3">
-        <v>162</v>
-      </c>
-      <c r="B163" s="3">
-        <f>[1]use_fish!$B163</f>
-        <v>18</v>
-      </c>
-      <c r="C163" s="4">
-        <v>9</v>
-      </c>
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -1290,7 +1290,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G142" sqref="G141:G142"/>
+      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2830,7 +2830,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C152" s="8"/>
     </row>
@@ -2839,7 +2839,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C153" s="8"/>
     </row>
@@ -2848,7 +2848,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C154" s="8"/>
     </row>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>attr_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,6 +81,9 @@
   <si>
     <t>actp_031_xxy_show</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_no_vivo</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G161" sqref="G161"/>
+      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2791,7 +2794,7 @@
       </c>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -2801,7 +2804,7 @@
       </c>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -2812,8 +2815,11 @@
       <c r="C146" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -2824,8 +2830,11 @@
       <c r="C147" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -2836,8 +2845,11 @@
       <c r="C148" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -2848,8 +2860,11 @@
       <c r="C149" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -2860,8 +2875,11 @@
       <c r="C150" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -2870,8 +2888,11 @@
         <v>18</v>
       </c>
       <c r="C151" s="6"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -2880,8 +2901,11 @@
         <v>61</v>
       </c>
       <c r="C152" s="6"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -2890,8 +2914,11 @@
         <v>61</v>
       </c>
       <c r="C153" s="6"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -2900,8 +2927,11 @@
         <v>61</v>
       </c>
       <c r="C154" s="6"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -2910,7 +2940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -2919,7 +2949,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -2928,7 +2958,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -2940,7 +2970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -2952,7 +2982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>159</v>
       </c>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -1007,6 +1007,21 @@
         <row r="151">
           <cell r="B151">
             <v>18</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>61</v>
           </cell>
         </row>
       </sheetData>
@@ -1290,7 +1305,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
+      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2757,7 +2772,7 @@
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B146" s="3">
         <f>[1]use_fish!$B146</f>
         <v>13</v>
       </c>
@@ -2769,7 +2784,7 @@
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B147" s="3">
         <f>[1]use_fish!$B147</f>
         <v>14</v>
       </c>
@@ -2781,7 +2796,7 @@
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B148" s="3">
         <f>[1]use_fish!$B148</f>
         <v>15</v>
       </c>
@@ -2793,7 +2808,7 @@
       <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="7">
+      <c r="B149" s="3">
         <f>[1]use_fish!$B149</f>
         <v>16</v>
       </c>
@@ -2805,7 +2820,7 @@
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="7">
+      <c r="B150" s="3">
         <f>[1]use_fish!$B150</f>
         <v>17</v>
       </c>
@@ -2817,7 +2832,7 @@
       <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="7">
+      <c r="B151" s="3">
         <f>[1]use_fish!$B151</f>
         <v>18</v>
       </c>
@@ -2829,7 +2844,8 @@
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="3">
+        <f>[1]use_fish!$B152</f>
         <v>61</v>
       </c>
       <c r="C152" s="8"/>
@@ -2838,7 +2854,8 @@
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="3">
+        <f>[1]use_fish!$B153</f>
         <v>61</v>
       </c>
       <c r="C153" s="8"/>
@@ -2847,7 +2864,8 @@
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B154" s="3">
+        <f>[1]use_fish!$B154</f>
         <v>61</v>
       </c>
       <c r="C154" s="8"/>

--- a/config_debug/fish3d_use_config.xlsx
+++ b/config_debug/fish3d_use_config.xlsx
@@ -1328,8 +1328,8 @@
   <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B177" sqref="B177"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3107,7 +3107,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="7">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -3115,44 +3115,49 @@
         <v>175</v>
       </c>
       <c r="B176" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="C176" s="6"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>176</v>
       </c>
       <c r="B177" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="C177" s="6"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>177</v>
       </c>
       <c r="B178" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="C178" s="6"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>178</v>
       </c>
       <c r="B179" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="C179" s="6"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>179</v>
       </c>
       <c r="B180" s="7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="C180" s="6"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
-      <c r="B181" s="7"/>
+      <c r="C181" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
